--- a/src/test/resources/loginData.xlsx
+++ b/src/test/resources/loginData.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13515" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Suite" sheetId="5" r:id="rId1"/>
+    <sheet name="Functionalities1" sheetId="4" r:id="rId2"/>
+    <sheet name="Functionalities12" sheetId="6" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" r:id="rId4"/>
+    <sheet name="Register" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N32"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -46,6 +50,42 @@
   </si>
   <si>
     <t>ashwini</t>
+  </si>
+  <si>
+    <t>Runnable</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Suites</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Func3</t>
+  </si>
+  <si>
+    <t>Func4</t>
+  </si>
+  <si>
+    <t>FunctionalityName</t>
+  </si>
+  <si>
+    <t>TestStatus</t>
   </si>
 </sst>
 </file>
@@ -393,86 +433,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -482,11 +655,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A33" sqref="A32:A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -494,7 +669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
